--- a/biology/Zoologie/Ancistrus_bufonius/Ancistrus_bufonius.xlsx
+++ b/biology/Zoologie/Ancistrus_bufonius/Ancistrus_bufonius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancistrus bufonius est une espèce de poissons-chats de la famille des Loricariidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour FishBase, cette espèce n'est présente qu'au Pérou, dans le bassin du rio Apurimac[1]. Toutefois, l’UICN la mentionne également en Bolivie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour FishBase, cette espèce n'est présente qu'au Pérou, dans le bassin du rio Apurimac. Toutefois, l’UICN la mentionne également en Bolivie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ancistrus bufonius peut mesurer jusqu'à 115 mm, queue non comprise[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancistrus bufonius peut mesurer jusqu'à 115 mm, queue non comprise.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Ancistrus bufonius (Valenciennes, 1840)[3].
-L'espèce a été initialement classée dans le genre Hypostomus sous le protonyme Hypostomus bufonius Valenciennes, 1840[3].
-Ancistrus bufonius a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Ancistrus bufonius (Valenciennes, 1840).
+L'espèce a été initialement classée dans le genre Hypostomus sous le protonyme Hypostomus bufonius Valenciennes, 1840.
+Ancistrus bufonius a pour synonymes :
 Ancistrus calamita (Valenciennes, 1840)
 Hypostomus bufonius Valenciennes, 1840
 Hypostomus calamita Valenciennes, 1840</t>
@@ -608,9 +626,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du latin bufonius, « qui ressemble à un crapaud », lui a probablement été donnée en référence à son apparence[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du latin bufonius, « qui ressemble à un crapaud », lui a probablement été donnée en référence à son apparence.
 </t>
         </is>
       </c>
